--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.7234194452089592</v>
+        <v>-0.2634544738301702</v>
       </c>
       <c r="C2">
-        <v>-0.3834194452089592</v>
+        <v>-0.1677772249736381</v>
       </c>
       <c r="D2">
-        <v>-0.05341944520895919</v>
+        <v>-0.4281992330346231</v>
       </c>
       <c r="E2">
-        <v>-0.1355414877936674</v>
+        <v>0.4072587527989196</v>
       </c>
       <c r="F2">
-        <v>-0.4640672783875395</v>
+        <v>0.3072359837017114</v>
       </c>
       <c r="G2">
-        <v>-0.1634194452089592</v>
+        <v>-0.04662207633221729</v>
       </c>
       <c r="H2">
-        <v>-0.3874194452089592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1015709931031478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.3534194452089633</v>
+        <v>-0.1427655701645288</v>
       </c>
       <c r="C3">
-        <v>-0.02341944520896333</v>
+        <v>-0.4031875782255139</v>
       </c>
       <c r="D3">
-        <v>-0.1055414877936715</v>
+        <v>0.4322704076080288</v>
       </c>
       <c r="E3">
-        <v>-0.4340672783875436</v>
+        <v>0.3322476385108206</v>
       </c>
       <c r="F3">
-        <v>-0.1334194452089633</v>
+        <v>-0.02161042152310803</v>
       </c>
       <c r="G3">
-        <v>-0.3574194452089633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.1265826479122571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.02941944520896284</v>
+        <v>-0.1674069739471072</v>
       </c>
       <c r="C4">
-        <v>-0.111541487793671</v>
+        <v>0.6680510118864355</v>
       </c>
       <c r="D4">
-        <v>-0.4400672783875431</v>
+        <v>0.5680282427892273</v>
       </c>
       <c r="E4">
-        <v>-0.1394194452089628</v>
+        <v>0.2141701827552986</v>
       </c>
       <c r="F4">
-        <v>-0.3634194452089628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.3623632521906637</v>
+      </c>
+      <c r="G4">
+        <v>0.519796913698928</v>
+      </c>
+      <c r="H4">
+        <v>0.0191408274226057</v>
+      </c>
+      <c r="I4">
+        <v>0.2994971146932124</v>
+      </c>
+      <c r="J4">
+        <v>0.1275310031338272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1.049458512206329</v>
+        <v>1.641111674953823</v>
       </c>
       <c r="C5">
-        <v>0.720932721612457</v>
+        <v>1.541088905856615</v>
       </c>
       <c r="D5">
-        <v>1.021580554791037</v>
+        <v>1.187230845822686</v>
       </c>
       <c r="E5">
-        <v>0.7975805547910373</v>
+        <v>1.335423915258051</v>
       </c>
       <c r="F5">
-        <v>0.9240905952545411</v>
+        <v>1.492857576766315</v>
       </c>
       <c r="G5">
-        <v>0.5833280328335071</v>
+        <v>0.9922014904899932</v>
       </c>
       <c r="H5">
-        <v>0.8887560800159811</v>
+        <v>1.2725577777606</v>
       </c>
       <c r="I5">
-        <v>0.6273507742420896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1.100591666201215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.03614492587092771</v>
+        <v>0.64310306534761</v>
       </c>
       <c r="C6">
-        <v>0.336792759049508</v>
+        <v>0.2892450053136812</v>
       </c>
       <c r="D6">
-        <v>0.112792759049508</v>
+        <v>0.4374380747490463</v>
       </c>
       <c r="E6">
-        <v>0.2393027995130118</v>
+        <v>0.5948717362573106</v>
       </c>
       <c r="F6">
-        <v>-0.1014597629080222</v>
+        <v>0.09421564998098833</v>
       </c>
       <c r="G6">
-        <v>0.2039682842744517</v>
+        <v>0.374571937251595</v>
       </c>
       <c r="H6">
-        <v>-0.05743702149943969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.2026058256922098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.3888575423673667</v>
+        <v>0.2251646141706316</v>
       </c>
       <c r="C7">
-        <v>0.1648575423673667</v>
+        <v>0.3733576836059967</v>
       </c>
       <c r="D7">
-        <v>0.2913675828308704</v>
+        <v>0.530791345114261</v>
       </c>
       <c r="E7">
-        <v>-0.04939497959016348</v>
+        <v>0.03013525883793872</v>
       </c>
       <c r="F7">
-        <v>0.2560330675923104</v>
+        <v>0.3104915461085453</v>
       </c>
       <c r="G7">
-        <v>-0.005372238181581002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1385254345491602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.2178055423673665</v>
+        <v>0.5378291618471884</v>
       </c>
       <c r="C8">
-        <v>0.3443155828308702</v>
+        <v>0.6952628233554528</v>
       </c>
       <c r="D8">
-        <v>0.003553020409836294</v>
+        <v>0.1946067370791305</v>
       </c>
       <c r="E8">
-        <v>0.3089810675923102</v>
+        <v>0.4749630243497371</v>
       </c>
       <c r="F8">
-        <v>0.04757576181841877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.302996912790352</v>
+      </c>
+      <c r="G8">
+        <v>0.6087440311202421</v>
+      </c>
+      <c r="H8">
+        <v>-0.003446134512213206</v>
+      </c>
+      <c r="I8">
+        <v>0.6848900978272674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.2177155828308688</v>
+        <v>0.5086525859949649</v>
       </c>
       <c r="C9">
-        <v>-0.1230469795901652</v>
+        <v>0.007996499718642608</v>
       </c>
       <c r="D9">
-        <v>0.1823810675923087</v>
+        <v>0.2883527869892493</v>
       </c>
       <c r="E9">
-        <v>-0.07902423818158269</v>
+        <v>0.1163866754298641</v>
       </c>
       <c r="F9">
-        <v>-0.1042316150472485</v>
+        <v>0.4221337937597542</v>
       </c>
       <c r="G9">
-        <v>0.08802670818432176</v>
+        <v>-0.1900563718727011</v>
       </c>
       <c r="H9">
-        <v>0.03925600674678861</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.4982798604667795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.2832979836365165</v>
+        <v>-0.1889757213638347</v>
       </c>
       <c r="C10">
-        <v>0.02213006354595735</v>
+        <v>0.09138056590677199</v>
       </c>
       <c r="D10">
-        <v>-0.2392752422279341</v>
+        <v>-0.08058554565261317</v>
       </c>
       <c r="E10">
-        <v>-0.2644826190935999</v>
+        <v>0.2251615726772769</v>
       </c>
       <c r="F10">
-        <v>-0.07222429586202964</v>
+        <v>-0.3870285929551783</v>
       </c>
       <c r="G10">
-        <v>-0.1209949972995628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.3013076393843023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.1019553157417096</v>
+        <v>0.1816619472563389</v>
       </c>
       <c r="C11">
-        <v>-0.1594499900321819</v>
+        <v>0.009695835696953689</v>
       </c>
       <c r="D11">
-        <v>-0.1846573668978476</v>
+        <v>0.3154429540268438</v>
       </c>
       <c r="E11">
-        <v>0.007600956333722597</v>
+        <v>-0.2967472116056115</v>
       </c>
       <c r="F11">
-        <v>-0.04116974510381055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.3915890207338691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2106960973457106</v>
+        <v>-0.1282989989530805</v>
       </c>
       <c r="C12">
-        <v>-0.2359034742113764</v>
+        <v>0.1774481193768096</v>
       </c>
       <c r="D12">
-        <v>-0.04364515097980613</v>
+        <v>-0.4347420462556457</v>
       </c>
       <c r="E12">
-        <v>-0.09241585241733928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.2535941860838349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.2524804961564816</v>
+        <v>0.2042627890992136</v>
       </c>
       <c r="C13">
-        <v>-0.06022217292491136</v>
+        <v>-0.4079273765332416</v>
       </c>
       <c r="D13">
-        <v>-0.1089928743624445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.280408855806239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.04027845718345001</v>
+        <v>-0.4731698452888153</v>
       </c>
       <c r="C14">
-        <v>-0.08904915862098316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.2151663870506653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.05533127520267883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.2908260759093906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.2634544738301702</v>
+        <v>-0.4080523778287335</v>
       </c>
       <c r="C2">
-        <v>-0.1677772249736381</v>
+        <v>-0.06805237782873351</v>
       </c>
       <c r="D2">
-        <v>-0.4281992330346231</v>
+        <v>0.2619476221712665</v>
       </c>
       <c r="E2">
-        <v>0.4072587527989196</v>
+        <v>0.1798255795865583</v>
       </c>
       <c r="F2">
-        <v>0.3072359837017114</v>
+        <v>-0.1487002110073138</v>
       </c>
       <c r="G2">
-        <v>-0.04662207633221729</v>
+        <v>0.1519476221712665</v>
       </c>
       <c r="H2">
-        <v>0.1015709931031478</v>
+        <v>-0.0720523778287335</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.1427655701645288</v>
+        <v>-0.04304072301962425</v>
       </c>
       <c r="C3">
-        <v>-0.4031875782255139</v>
+        <v>0.2869592769803757</v>
       </c>
       <c r="D3">
-        <v>0.4322704076080288</v>
+        <v>0.2048372343956676</v>
       </c>
       <c r="E3">
-        <v>0.3322476385108206</v>
+        <v>-0.1236885561982045</v>
       </c>
       <c r="F3">
-        <v>-0.02161042152310803</v>
+        <v>0.1769592769803758</v>
       </c>
       <c r="G3">
-        <v>0.1265826479122571</v>
+        <v>-0.04704072301962425</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1674069739471072</v>
+        <v>0.5227398812587823</v>
       </c>
       <c r="C4">
-        <v>0.6680510118864355</v>
+        <v>0.4406178386740742</v>
       </c>
       <c r="D4">
-        <v>0.5680282427892273</v>
+        <v>0.1120920480802021</v>
       </c>
       <c r="E4">
-        <v>0.2141701827552986</v>
+        <v>0.4127398812587824</v>
       </c>
       <c r="F4">
-        <v>0.3623632521906637</v>
+        <v>0.1887398812587824</v>
       </c>
       <c r="G4">
-        <v>0.519796913698928</v>
+        <v>0.3152499217222862</v>
       </c>
       <c r="H4">
-        <v>0.0191408274226057</v>
+        <v>-0.02551264069874778</v>
       </c>
       <c r="I4">
-        <v>0.2994971146932124</v>
+        <v>0.2799154064837261</v>
       </c>
       <c r="J4">
-        <v>0.1275310031338272</v>
+        <v>0.01851010070983469</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.641111674953823</v>
+        <v>1.413678501741462</v>
       </c>
       <c r="C5">
-        <v>1.541088905856615</v>
+        <v>1.08515271114759</v>
       </c>
       <c r="D5">
-        <v>1.187230845822686</v>
+        <v>1.38580054432617</v>
       </c>
       <c r="E5">
-        <v>1.335423915258051</v>
+        <v>1.16180054432617</v>
       </c>
       <c r="F5">
-        <v>1.492857576766315</v>
+        <v>1.288310584789674</v>
       </c>
       <c r="G5">
-        <v>0.9922014904899932</v>
+        <v>0.9475480223686397</v>
       </c>
       <c r="H5">
-        <v>1.2725577777606</v>
+        <v>1.252976069551114</v>
       </c>
       <c r="I5">
-        <v>1.100591666201215</v>
+        <v>0.9915707637772222</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.64310306534761</v>
+        <v>0.1871668706385847</v>
       </c>
       <c r="C6">
-        <v>0.2892450053136812</v>
+        <v>0.487814703817165</v>
       </c>
       <c r="D6">
-        <v>0.4374380747490463</v>
+        <v>0.263814703817165</v>
       </c>
       <c r="E6">
-        <v>0.5948717362573106</v>
+        <v>0.3903247442806688</v>
       </c>
       <c r="F6">
-        <v>0.09421564998098833</v>
+        <v>0.04956218185963485</v>
       </c>
       <c r="G6">
-        <v>0.374571937251595</v>
+        <v>0.3549902290421088</v>
       </c>
       <c r="H6">
-        <v>0.2026058256922098</v>
+        <v>0.09358492326821732</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.2251646141706316</v>
+        <v>0.4237343126741154</v>
       </c>
       <c r="C7">
-        <v>0.3733576836059967</v>
+        <v>0.1997343126741154</v>
       </c>
       <c r="D7">
-        <v>0.530791345114261</v>
+        <v>0.3262443531376191</v>
       </c>
       <c r="E7">
-        <v>0.03013525883793872</v>
+        <v>-0.01451820928341477</v>
       </c>
       <c r="F7">
-        <v>0.3104915461085453</v>
+        <v>0.2909098378990592</v>
       </c>
       <c r="G7">
-        <v>0.1385254345491602</v>
+        <v>0.02950453212516771</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.5378291618471884</v>
+        <v>0.3642057909153072</v>
       </c>
       <c r="C8">
-        <v>0.6952628233554528</v>
+        <v>0.4907158313788109</v>
       </c>
       <c r="D8">
-        <v>0.1946067370791305</v>
+        <v>0.149953268957777</v>
       </c>
       <c r="E8">
-        <v>0.4749630243497371</v>
+        <v>0.4553813161402509</v>
       </c>
       <c r="F8">
-        <v>0.302996912790352</v>
+        <v>0.1939760103663595</v>
       </c>
       <c r="G8">
-        <v>0.6087440311202421</v>
+        <v>0.1687686335006937</v>
       </c>
       <c r="H8">
-        <v>-0.003446134512213206</v>
+        <v>0.3610269567322639</v>
       </c>
       <c r="I8">
-        <v>0.6848900978272674</v>
+        <v>0.3122562552947308</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.5086525859949649</v>
+        <v>0.304105594018323</v>
       </c>
       <c r="C9">
-        <v>0.007996499718642608</v>
+        <v>-0.03665696840271088</v>
       </c>
       <c r="D9">
-        <v>0.2883527869892493</v>
+        <v>0.268771078779763</v>
       </c>
       <c r="E9">
-        <v>0.1163866754298641</v>
+        <v>0.007365773005871601</v>
       </c>
       <c r="F9">
-        <v>0.4221337937597542</v>
+        <v>-0.01784160385979419</v>
       </c>
       <c r="G9">
-        <v>-0.1900563718727011</v>
+        <v>0.1744167193717761</v>
       </c>
       <c r="H9">
-        <v>0.4982798604667795</v>
+        <v>0.1256460179342429</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.1889757213638347</v>
+        <v>-0.2336291894851882</v>
       </c>
       <c r="C10">
-        <v>0.09138056590677199</v>
+        <v>0.07179885769728576</v>
       </c>
       <c r="D10">
-        <v>-0.08058554565261317</v>
+        <v>-0.1896064480766057</v>
       </c>
       <c r="E10">
-        <v>0.2251615726772769</v>
+        <v>-0.2148138249422715</v>
       </c>
       <c r="F10">
-        <v>-0.3870285929551783</v>
+        <v>-0.02255550171070122</v>
       </c>
       <c r="G10">
-        <v>0.3013076393843023</v>
+        <v>-0.07132620314823437</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.1816619472563389</v>
+        <v>0.1620802390468526</v>
       </c>
       <c r="C11">
-        <v>0.009695835696953689</v>
+        <v>-0.09932506672703881</v>
       </c>
       <c r="D11">
-        <v>0.3154429540268438</v>
+        <v>-0.1245324435927046</v>
       </c>
       <c r="E11">
-        <v>-0.2967472116056115</v>
+        <v>0.06772587963886564</v>
       </c>
       <c r="F11">
-        <v>0.3915890207338691</v>
+        <v>0.0189551782013325</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.1282989989530805</v>
+        <v>-0.237319901377073</v>
       </c>
       <c r="C12">
-        <v>0.1774481193768096</v>
+        <v>-0.2625272782427387</v>
       </c>
       <c r="D12">
-        <v>-0.4347420462556457</v>
+        <v>-0.07026895501116853</v>
       </c>
       <c r="E12">
-        <v>0.2535941860838349</v>
+        <v>-0.1190396564487017</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.2042627890992136</v>
+        <v>-0.2357126085203348</v>
       </c>
       <c r="C13">
-        <v>-0.4079273765332416</v>
+        <v>-0.04345428528876452</v>
       </c>
       <c r="D13">
-        <v>0.280408855806239</v>
+        <v>-0.09222498672629767</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.4731698452888153</v>
+        <v>-0.1086967540443382</v>
       </c>
       <c r="C14">
-        <v>0.2151663870506653</v>
+        <v>-0.1574674554818714</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.2908260759093906</v>
+        <v>-0.08180776662314601</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.8658532110776773</v>
+      </c>
+      <c r="C2">
+        <v>1.085355595993732</v>
+      </c>
+      <c r="D2">
+        <v>1.186601308435371</v>
+      </c>
+      <c r="E2">
+        <v>2.888257068760709</v>
+      </c>
+      <c r="F2">
+        <v>4.462956867670698</v>
+      </c>
+      <c r="G2">
+        <v>0.2195858099994154</v>
+      </c>
+      <c r="H2">
+        <v>-0.06584579129422252</v>
+      </c>
+      <c r="I2">
+        <v>0.4815245213419388</v>
+      </c>
+      <c r="J2">
+        <v>0.5008400671930531</v>
+      </c>
+      <c r="K2">
+        <v>-1.637808376238996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.268344630048213</v>
+      </c>
+      <c r="C3">
+        <v>2.970000390373551</v>
+      </c>
+      <c r="D3">
+        <v>4.54470018928354</v>
+      </c>
+      <c r="E3">
+        <v>0.3013291316122576</v>
+      </c>
+      <c r="F3">
+        <v>0.01589753031861962</v>
+      </c>
+      <c r="G3">
+        <v>0.5632678429547809</v>
+      </c>
+      <c r="H3">
+        <v>0.5825833888058952</v>
+      </c>
+      <c r="I3">
+        <v>-1.556065054626154</v>
+      </c>
+      <c r="J3">
+        <v>0.0439349453738459</v>
+      </c>
+      <c r="K3">
+        <v>0.3791706638676062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4.339329523325842</v>
+      </c>
+      <c r="C4">
+        <v>0.09595846565456007</v>
+      </c>
+      <c r="D4">
+        <v>-0.1894731356390779</v>
+      </c>
+      <c r="E4">
+        <v>0.3578971769970835</v>
+      </c>
+      <c r="F4">
+        <v>0.3772127228481977</v>
+      </c>
+      <c r="G4">
+        <v>-1.761435720583851</v>
+      </c>
+      <c r="H4">
+        <v>-0.1614357205838516</v>
+      </c>
+      <c r="I4">
+        <v>0.1737999979099087</v>
+      </c>
+      <c r="J4">
+        <v>-0.9614357205838516</v>
+      </c>
+      <c r="K4">
+        <v>0.2385642794161484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-1.007538562934791</v>
+      </c>
+      <c r="C5">
+        <v>-0.4601682502986292</v>
+      </c>
+      <c r="D5">
+        <v>-0.4408527044475149</v>
+      </c>
+      <c r="E5">
+        <v>-2.579501147879564</v>
+      </c>
+      <c r="F5">
+        <v>-0.9795011478795643</v>
+      </c>
+      <c r="G5">
+        <v>-0.644265429385804</v>
+      </c>
+      <c r="H5">
+        <v>-1.779501147879564</v>
+      </c>
+      <c r="I5">
+        <v>-0.5795011478795643</v>
+      </c>
+      <c r="J5">
+        <v>-0.7795011478795644</v>
+      </c>
+      <c r="K5">
+        <v>-0.09763575208163641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.4455771874935578</v>
+      </c>
+      <c r="C6">
+        <v>-2.584225630925607</v>
+      </c>
+      <c r="D6">
+        <v>-0.9842256309256072</v>
+      </c>
+      <c r="E6">
+        <v>-0.6489899124318469</v>
+      </c>
+      <c r="F6">
+        <v>-1.784225630925607</v>
+      </c>
+      <c r="G6">
+        <v>-0.5842256309256072</v>
+      </c>
+      <c r="H6">
+        <v>-0.7842256309256073</v>
+      </c>
+      <c r="I6">
+        <v>-0.1023602351276793</v>
+      </c>
+      <c r="J6">
+        <v>-0.7842256309256073</v>
+      </c>
+      <c r="K6">
+        <v>-0.5842256309256072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1.060560542051235</v>
+      </c>
+      <c r="C7">
+        <v>-0.7253248235574744</v>
+      </c>
+      <c r="D7">
+        <v>-1.860560542051235</v>
+      </c>
+      <c r="E7">
+        <v>-0.6605605420512347</v>
+      </c>
+      <c r="F7">
+        <v>-0.8605605420512348</v>
+      </c>
+      <c r="G7">
+        <v>-0.1786951462533068</v>
+      </c>
+      <c r="H7">
+        <v>-0.8605605420512348</v>
+      </c>
+      <c r="I7">
+        <v>-0.6605605420512347</v>
+      </c>
+      <c r="J7">
+        <v>-0.5605605420512347</v>
+      </c>
+      <c r="K7">
+        <v>0.3307583964246675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1.666952207409855</v>
+      </c>
+      <c r="C8">
+        <v>-0.4669522074098547</v>
+      </c>
+      <c r="D8">
+        <v>-0.6669522074098547</v>
+      </c>
+      <c r="E8">
+        <v>0.01491318838807321</v>
+      </c>
+      <c r="F8">
+        <v>-0.6669522074098547</v>
+      </c>
+      <c r="G8">
+        <v>-0.4669522074098547</v>
+      </c>
+      <c r="H8">
+        <v>-0.3669522074098547</v>
+      </c>
+      <c r="I8">
+        <v>0.5243667310660475</v>
+      </c>
+      <c r="J8">
+        <v>-0.2302327443170123</v>
+      </c>
+      <c r="K8">
+        <v>-0.8669522074098547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.3844737916354247</v>
+      </c>
+      <c r="C9">
+        <v>0.2973916041625032</v>
+      </c>
+      <c r="D9">
+        <v>-0.3844737916354247</v>
+      </c>
+      <c r="E9">
+        <v>-0.1844737916354247</v>
+      </c>
+      <c r="F9">
+        <v>-0.08447379163542471</v>
+      </c>
+      <c r="G9">
+        <v>0.8068451468404775</v>
+      </c>
+      <c r="H9">
+        <v>0.05224567145741768</v>
+      </c>
+      <c r="I9">
+        <v>-0.5844737916354247</v>
+      </c>
+      <c r="J9">
+        <v>-0.1844737916354247</v>
+      </c>
+      <c r="K9">
+        <v>-0.2682320743566989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.2679655392137823</v>
+      </c>
+      <c r="C10">
+        <v>0.4679655392137823</v>
+      </c>
+      <c r="D10">
+        <v>0.5679655392137823</v>
+      </c>
+      <c r="E10">
+        <v>1.459284477689685</v>
+      </c>
+      <c r="F10">
+        <v>0.7046850023066247</v>
+      </c>
+      <c r="G10">
+        <v>0.06796553921378234</v>
+      </c>
+      <c r="H10">
+        <v>0.4679655392137823</v>
+      </c>
+      <c r="I10">
+        <v>0.3842072564925081</v>
+      </c>
+      <c r="J10">
+        <v>-0.04995849877536163</v>
+      </c>
+      <c r="K10">
+        <v>0.8530597352843534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.4967158511065961</v>
+      </c>
+      <c r="C11">
+        <v>1.388034789582498</v>
+      </c>
+      <c r="D11">
+        <v>0.6334353141994384</v>
+      </c>
+      <c r="E11">
+        <v>-0.003284148893403893</v>
+      </c>
+      <c r="F11">
+        <v>0.3967158511065961</v>
+      </c>
+      <c r="G11">
+        <v>0.3129575683853218</v>
+      </c>
+      <c r="H11">
+        <v>-0.1212081868825479</v>
+      </c>
+      <c r="I11">
+        <v>0.7818100471771672</v>
+      </c>
+      <c r="J11">
+        <v>0.6304765785344486</v>
+      </c>
+      <c r="K11">
+        <v>-0.002975002355618983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.5788896489912631</v>
+      </c>
+      <c r="C12">
+        <v>-0.05782981410157928</v>
+      </c>
+      <c r="D12">
+        <v>0.3421701858984207</v>
+      </c>
+      <c r="E12">
+        <v>0.2584119031771465</v>
+      </c>
+      <c r="F12">
+        <v>-0.1757538520907233</v>
+      </c>
+      <c r="G12">
+        <v>0.7272643819689918</v>
+      </c>
+      <c r="H12">
+        <v>0.5759309133262732</v>
+      </c>
+      <c r="I12">
+        <v>-0.05752066756379437</v>
+      </c>
+      <c r="J12">
+        <v>0.3698661300355454</v>
+      </c>
+      <c r="K12">
+        <v>0.2035272490591765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.01154218044262617</v>
+      </c>
+      <c r="C13">
+        <v>-0.0953004631639004</v>
+      </c>
+      <c r="D13">
+        <v>-0.5294662184317701</v>
+      </c>
+      <c r="E13">
+        <v>0.3735520156279449</v>
+      </c>
+      <c r="F13">
+        <v>0.2222185469852264</v>
+      </c>
+      <c r="G13">
+        <v>-0.4112330339048412</v>
+      </c>
+      <c r="H13">
+        <v>0.0161537636944985</v>
+      </c>
+      <c r="I13">
+        <v>-0.1501851172818704</v>
+      </c>
+      <c r="J13">
+        <v>-0.02746674847313668</v>
+      </c>
+      <c r="K13">
+        <v>0.01976708777089581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.6241577738142781</v>
+      </c>
+      <c r="C14">
+        <v>0.278860460245437</v>
+      </c>
+      <c r="D14">
+        <v>0.1275269916027184</v>
+      </c>
+      <c r="E14">
+        <v>-0.5059245892873492</v>
+      </c>
+      <c r="F14">
+        <v>-0.07853779168800942</v>
+      </c>
+      <c r="G14">
+        <v>-0.2448766726643783</v>
+      </c>
+      <c r="H14">
+        <v>-0.1221583038556446</v>
+      </c>
+      <c r="I14">
+        <v>-0.07492446761161212</v>
+      </c>
+      <c r="J14">
+        <v>-0.4715483026173246</v>
+      </c>
+      <c r="K14">
+        <v>-0.2174877627078644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.2006743246404624</v>
+      </c>
+      <c r="C15">
+        <v>-0.4327772562496052</v>
+      </c>
+      <c r="D15">
+        <v>-0.005390458650265439</v>
+      </c>
+      <c r="E15">
+        <v>-0.1717293396266343</v>
+      </c>
+      <c r="F15">
+        <v>-0.04901097081790062</v>
+      </c>
+      <c r="G15">
+        <v>-0.001777134573868133</v>
+      </c>
+      <c r="H15">
+        <v>-0.3984009695795806</v>
+      </c>
+      <c r="I15">
+        <v>-0.1443404296701204</v>
+      </c>
+      <c r="J15">
+        <v>0.07577883373562877</v>
+      </c>
+      <c r="K15">
+        <v>-0.1508151120785869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.10450435015332</v>
+      </c>
+      <c r="C16">
+        <v>-0.2708432311296889</v>
+      </c>
+      <c r="D16">
+        <v>-0.1481248623209552</v>
+      </c>
+      <c r="E16">
+        <v>-0.1008910260769227</v>
+      </c>
+      <c r="F16">
+        <v>-0.4975148610826352</v>
+      </c>
+      <c r="G16">
+        <v>-0.243454321173175</v>
+      </c>
+      <c r="H16">
+        <v>-0.02333505776742581</v>
+      </c>
+      <c r="I16">
+        <v>-0.2499290035816415</v>
+      </c>
+      <c r="J16">
+        <v>-0.4380947362002985</v>
+      </c>
+      <c r="K16">
+        <v>-0.4654027144206907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.07159345646779661</v>
+      </c>
+      <c r="C17">
+        <v>-0.02435962022376412</v>
+      </c>
+      <c r="D17">
+        <v>-0.4209834552294766</v>
+      </c>
+      <c r="E17">
+        <v>-0.1669229153200164</v>
+      </c>
+      <c r="F17">
+        <v>0.05319634808573279</v>
+      </c>
+      <c r="G17">
+        <v>-0.1733975977284829</v>
+      </c>
+      <c r="H17">
+        <v>-0.3615633303471398</v>
+      </c>
+      <c r="I17">
+        <v>-0.388871308567532</v>
+      </c>
+      <c r="J17">
+        <v>-0.579840620995968</v>
+      </c>
+      <c r="K17">
+        <v>-0.3626408008892256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.2551825988922062</v>
+      </c>
+      <c r="C18">
+        <v>-0.001122058982745977</v>
+      </c>
+      <c r="D18">
+        <v>0.2189972044230032</v>
+      </c>
+      <c r="E18">
+        <v>-0.007596741391212525</v>
+      </c>
+      <c r="F18">
+        <v>-0.1957624740098695</v>
+      </c>
+      <c r="G18">
+        <v>-0.2230704522302617</v>
+      </c>
+      <c r="H18">
+        <v>-0.4140397646586976</v>
+      </c>
+      <c r="I18">
+        <v>-0.1968399445519552</v>
+      </c>
+      <c r="J18">
+        <v>0.1128527134437846</v>
+      </c>
+      <c r="K18">
+        <v>-0.04145182147429838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.2002920431841204</v>
+      </c>
+      <c r="C19">
+        <v>-0.0263019026300953</v>
+      </c>
+      <c r="D19">
+        <v>-0.2144676352487522</v>
+      </c>
+      <c r="E19">
+        <v>-0.2417756134691444</v>
+      </c>
+      <c r="F19">
+        <v>-0.4327449258975804</v>
+      </c>
+      <c r="G19">
+        <v>-0.215545105790838</v>
+      </c>
+      <c r="H19">
+        <v>0.09414755220490184</v>
+      </c>
+      <c r="I19">
+        <v>-0.06015698271318115</v>
+      </c>
+      <c r="J19">
+        <v>0.5914268066611015</v>
+      </c>
+      <c r="K19">
+        <v>0.3741060044138607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.2710830685753877</v>
+      </c>
+      <c r="C20">
+        <v>-0.2983910467957799</v>
+      </c>
+      <c r="D20">
+        <v>-0.4893603592242158</v>
+      </c>
+      <c r="E20">
+        <v>-0.2721605391174734</v>
+      </c>
+      <c r="F20">
+        <v>0.03753211887826641</v>
+      </c>
+      <c r="G20">
+        <v>-0.1167724160398166</v>
+      </c>
+      <c r="H20">
+        <v>0.5348113733344662</v>
+      </c>
+      <c r="I20">
+        <v>0.3174905710872252</v>
+      </c>
+      <c r="J20">
+        <v>-0.06518862666553393</v>
+      </c>
+      <c r="K20">
+        <v>0.4094942935234002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.3967876379289819</v>
+      </c>
+      <c r="C21">
+        <v>-0.1795878178222395</v>
+      </c>
+      <c r="D21">
+        <v>0.1301048401735003</v>
+      </c>
+      <c r="E21">
+        <v>-0.02419969474458267</v>
+      </c>
+      <c r="F21">
+        <v>0.6273840946297</v>
+      </c>
+      <c r="G21">
+        <v>0.4100632923824591</v>
+      </c>
+      <c r="H21">
+        <v>0.02738409462969998</v>
+      </c>
+      <c r="I21">
+        <v>0.5020670148186341</v>
+      </c>
+      <c r="J21">
+        <v>0.3432229934097379</v>
+      </c>
+      <c r="K21">
+        <v>0.399392262794548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.2260674417029023</v>
+      </c>
+      <c r="C22">
+        <v>0.07176290678481934</v>
+      </c>
+      <c r="D22">
+        <v>0.723346696159102</v>
+      </c>
+      <c r="E22">
+        <v>0.5060258939118611</v>
+      </c>
+      <c r="F22">
+        <v>0.123346696159102</v>
+      </c>
+      <c r="G22">
+        <v>0.5980296163480361</v>
+      </c>
+      <c r="H22">
+        <v>0.4391855949391399</v>
+      </c>
+      <c r="I22">
+        <v>0.49535486432395</v>
+      </c>
+      <c r="J22">
+        <v>2.723346696159102</v>
+      </c>
+      <c r="K22">
+        <v>10.21430220778742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.07236273610082411</v>
+      </c>
+      <c r="C23">
+        <v>0.7239465254751067</v>
+      </c>
+      <c r="D23">
+        <v>0.5066257232278659</v>
+      </c>
+      <c r="E23">
+        <v>0.1239465254751068</v>
+      </c>
+      <c r="F23">
+        <v>0.5986294456640409</v>
+      </c>
+      <c r="G23">
+        <v>0.4397854242551447</v>
+      </c>
+      <c r="H23">
+        <v>0.4959546936399548</v>
+      </c>
+      <c r="I23">
+        <v>2.723946525475107</v>
+      </c>
+      <c r="J23">
+        <v>10.21490203710342</v>
+      </c>
+      <c r="K23">
+        <v>-6.116053474524894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.7296007941814922</v>
+      </c>
+      <c r="C24">
+        <v>0.5122799919342512</v>
+      </c>
+      <c r="D24">
+        <v>0.1296007941814921</v>
+      </c>
+      <c r="E24">
+        <v>0.6042837143704262</v>
+      </c>
+      <c r="F24">
+        <v>0.44543969296153</v>
+      </c>
+      <c r="G24">
+        <v>0.5016089623463401</v>
+      </c>
+      <c r="H24">
+        <v>2.729600794181492</v>
+      </c>
+      <c r="I24">
+        <v>10.22055630580981</v>
+      </c>
+      <c r="J24">
+        <v>-6.110399205818508</v>
+      </c>
+      <c r="K24">
+        <v>0.9296007941814978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.5282943614560878</v>
+      </c>
+      <c r="C25">
+        <v>0.1456151637033286</v>
+      </c>
+      <c r="D25">
+        <v>0.6202980838922627</v>
+      </c>
+      <c r="E25">
+        <v>0.4614540624833665</v>
+      </c>
+      <c r="F25">
+        <v>0.5176233318681767</v>
+      </c>
+      <c r="G25">
+        <v>2.745615163703329</v>
+      </c>
+      <c r="H25">
+        <v>10.23657067533165</v>
+      </c>
+      <c r="I25">
+        <v>-6.094384836296672</v>
+      </c>
+      <c r="J25">
+        <v>0.9456151637033343</v>
+      </c>
+      <c r="K25">
+        <v>1.255095163703328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.06228657478851546</v>
+      </c>
+      <c r="C26">
+        <v>0.5369694949774495</v>
+      </c>
+      <c r="D26">
+        <v>0.3781254735685534</v>
+      </c>
+      <c r="E26">
+        <v>0.4342947429533635</v>
+      </c>
+      <c r="F26">
+        <v>2.662286574788516</v>
+      </c>
+      <c r="G26">
+        <v>10.15324208641683</v>
+      </c>
+      <c r="H26">
+        <v>-6.177713425211485</v>
+      </c>
+      <c r="I26">
+        <v>0.8622865747885211</v>
+      </c>
+      <c r="J26">
+        <v>1.171766574788515</v>
+      </c>
+      <c r="K26">
+        <v>-0.8477134252115006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.4846313257112556</v>
+      </c>
+      <c r="C27">
+        <v>0.3257873043023594</v>
+      </c>
+      <c r="D27">
+        <v>0.3819565736871695</v>
+      </c>
+      <c r="E27">
+        <v>2.609948405522322</v>
+      </c>
+      <c r="F27">
+        <v>10.10090391715064</v>
+      </c>
+      <c r="G27">
+        <v>-6.230051594477679</v>
+      </c>
+      <c r="H27">
+        <v>0.8099484055223272</v>
+      </c>
+      <c r="I27">
+        <v>1.119428405522321</v>
+      </c>
+      <c r="J27">
+        <v>-0.9000515944776946</v>
+      </c>
+      <c r="K27">
+        <v>-1.110051594477689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.3551483729513627</v>
+      </c>
+      <c r="C28">
+        <v>0.4113176423361729</v>
+      </c>
+      <c r="D28">
+        <v>2.639309474171325</v>
+      </c>
+      <c r="E28">
+        <v>10.13026498579964</v>
+      </c>
+      <c r="F28">
+        <v>-6.200690525828676</v>
+      </c>
+      <c r="G28">
+        <v>0.8393094741713305</v>
+      </c>
+      <c r="H28">
+        <v>1.148789474171324</v>
+      </c>
+      <c r="I28">
+        <v>-0.8706905258286912</v>
+      </c>
+      <c r="J28">
+        <v>-1.080690525828685</v>
+      </c>
+      <c r="K28">
+        <v>0.9793094741713169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.3526594917673435</v>
+      </c>
+      <c r="C29">
+        <v>2.580651323602495</v>
+      </c>
+      <c r="D29">
+        <v>10.07160683523081</v>
+      </c>
+      <c r="E29">
+        <v>-6.259348676397505</v>
+      </c>
+      <c r="F29">
+        <v>0.7806513236025012</v>
+      </c>
+      <c r="G29">
+        <v>1.090131323602495</v>
+      </c>
+      <c r="H29">
+        <v>-0.9293486763975205</v>
+      </c>
+      <c r="I29">
+        <v>-1.139348676397514</v>
+      </c>
+      <c r="J29">
+        <v>0.9206513236024876</v>
+      </c>
+      <c r="K29">
+        <v>-0.084634224307848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>2.490739902472344</v>
+      </c>
+      <c r="C30">
+        <v>9.98169541410066</v>
+      </c>
+      <c r="D30">
+        <v>-6.349260097527657</v>
+      </c>
+      <c r="E30">
+        <v>0.6907399024723488</v>
+      </c>
+      <c r="F30">
+        <v>1.000219902472342</v>
+      </c>
+      <c r="G30">
+        <v>-1.019260097527673</v>
+      </c>
+      <c r="H30">
+        <v>-1.229260097527667</v>
+      </c>
+      <c r="I30">
+        <v>0.8307399024723352</v>
+      </c>
+      <c r="J30">
+        <v>-0.1745456454380003</v>
+      </c>
+      <c r="K30">
+        <v>-0.08926009752765679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>9.93310555517113</v>
+      </c>
+      <c r="C31">
+        <v>-6.397849956457188</v>
+      </c>
+      <c r="D31">
+        <v>0.6421500435428186</v>
+      </c>
+      <c r="E31">
+        <v>0.9516300435428121</v>
+      </c>
+      <c r="F31">
+        <v>-1.067849956457203</v>
+      </c>
+      <c r="G31">
+        <v>-1.277849956457197</v>
+      </c>
+      <c r="H31">
+        <v>0.7821500435428049</v>
+      </c>
+      <c r="I31">
+        <v>-0.2231355043675306</v>
+      </c>
+      <c r="J31">
+        <v>-0.1378499564571871</v>
+      </c>
+      <c r="K31">
+        <v>0.2021500435428129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-6.687145020386152</v>
+      </c>
+      <c r="C32">
+        <v>0.3528549796138537</v>
+      </c>
+      <c r="D32">
+        <v>0.6623349796138472</v>
+      </c>
+      <c r="E32">
+        <v>-1.357145020386168</v>
+      </c>
+      <c r="F32">
+        <v>-1.567145020386162</v>
+      </c>
+      <c r="G32">
+        <v>0.4928549796138401</v>
+      </c>
+      <c r="H32">
+        <v>-0.5124305682964955</v>
+      </c>
+      <c r="I32">
+        <v>-0.427145020386152</v>
+      </c>
+      <c r="J32">
+        <v>-0.08714502038615196</v>
+      </c>
+      <c r="K32">
+        <v>0.242854979613848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-0.008010376872026437</v>
+      </c>
+      <c r="C33">
+        <v>0.3014696231279671</v>
+      </c>
+      <c r="D33">
+        <v>-1.718010376872048</v>
+      </c>
+      <c r="E33">
+        <v>-1.928010376872042</v>
+      </c>
+      <c r="F33">
+        <v>0.1319896231279599</v>
+      </c>
+      <c r="G33">
+        <v>-0.8732959247823756</v>
+      </c>
+      <c r="H33">
+        <v>-0.7880103768720321</v>
+      </c>
+      <c r="I33">
+        <v>-0.4480103768720321</v>
+      </c>
+      <c r="J33">
+        <v>-0.1180103768720321</v>
+      </c>
+      <c r="K33">
+        <v>-0.2001324194567403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.408803721104411</v>
+      </c>
+      <c r="C34">
+        <v>-1.610676278895604</v>
+      </c>
+      <c r="D34">
+        <v>-1.820676278895598</v>
+      </c>
+      <c r="E34">
+        <v>0.2393237211044039</v>
+      </c>
+      <c r="F34">
+        <v>-0.7659618268059316</v>
+      </c>
+      <c r="G34">
+        <v>-0.6806762788955882</v>
+      </c>
+      <c r="H34">
+        <v>-0.3406762788955882</v>
+      </c>
+      <c r="I34">
+        <v>-0.0106762788955882</v>
+      </c>
+      <c r="J34">
+        <v>-0.09279832148029638</v>
+      </c>
+      <c r="K34">
+        <v>-0.4213241120741685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-1.595286937008782</v>
+      </c>
+      <c r="C35">
+        <v>-1.805286937008776</v>
+      </c>
+      <c r="D35">
+        <v>0.254713062991226</v>
+      </c>
+      <c r="E35">
+        <v>-0.7505724849191096</v>
+      </c>
+      <c r="F35">
+        <v>-0.665286937008766</v>
+      </c>
+      <c r="G35">
+        <v>-0.325286937008766</v>
+      </c>
+      <c r="H35">
+        <v>0.004713062991233974</v>
+      </c>
+      <c r="I35">
+        <v>-0.0774089795934742</v>
+      </c>
+      <c r="J35">
+        <v>-0.4059347701873463</v>
+      </c>
+      <c r="K35">
+        <v>-0.105286937008766</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-1.765456759433201</v>
+      </c>
+      <c r="C36">
+        <v>0.2945432405668015</v>
+      </c>
+      <c r="D36">
+        <v>-0.7107423073435341</v>
+      </c>
+      <c r="E36">
+        <v>-0.6254567594331906</v>
+      </c>
+      <c r="F36">
+        <v>-0.2854567594331906</v>
+      </c>
+      <c r="G36">
+        <v>0.04454324056680939</v>
+      </c>
+      <c r="H36">
+        <v>-0.03757880201789879</v>
+      </c>
+      <c r="I36">
+        <v>-0.3661045926117709</v>
+      </c>
+      <c r="J36">
+        <v>-0.0654567594331906</v>
+      </c>
+      <c r="K36">
+        <v>-0.2894567594331906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.4092591035005043</v>
+      </c>
+      <c r="C37">
+        <v>-0.5960264444098312</v>
+      </c>
+      <c r="D37">
+        <v>-0.5107408964994877</v>
+      </c>
+      <c r="E37">
+        <v>-0.1707408964994877</v>
+      </c>
+      <c r="F37">
+        <v>0.1592591035005123</v>
+      </c>
+      <c r="G37">
+        <v>0.07713706091580411</v>
+      </c>
+      <c r="H37">
+        <v>-0.251388729678068</v>
+      </c>
+      <c r="I37">
+        <v>0.0492591035005123</v>
+      </c>
+      <c r="J37">
+        <v>-0.1747408964994877</v>
+      </c>
+      <c r="K37">
+        <v>-0.04823085603598395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-0.5603437071730256</v>
+      </c>
+      <c r="C38">
+        <v>-0.4750581592626822</v>
+      </c>
+      <c r="D38">
+        <v>-0.1350581592626822</v>
+      </c>
+      <c r="E38">
+        <v>0.1949418407373178</v>
+      </c>
+      <c r="F38">
+        <v>0.1128197981526096</v>
+      </c>
+      <c r="G38">
+        <v>-0.2157059924412625</v>
+      </c>
+      <c r="H38">
+        <v>0.08494184073731782</v>
+      </c>
+      <c r="I38">
+        <v>-0.1390581592626822</v>
+      </c>
+      <c r="J38">
+        <v>-0.01254811879917843</v>
+      </c>
+      <c r="K38">
+        <v>-0.3533106812202124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-0.4080523778287335</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-0.06805237782873351</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>0.2619476221712665</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>0.1798255795865583</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>-0.1487002110073138</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>0.1519476221712665</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>-0.0720523778287335</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.05445766263477023</v>
+      </c>
+      <c r="J39">
+        <v>-0.2863048997862637</v>
+      </c>
+      <c r="K39">
+        <v>0.01912314739621022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>-0.04304072301962425</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>0.2869592769803757</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>0.2048372343956676</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>-0.1236885561982045</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.1769592769803758</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>-0.04704072301962425</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.0794693174438795</v>
+      </c>
+      <c r="I40">
+        <v>-0.2612932449771544</v>
+      </c>
+      <c r="J40">
+        <v>0.04413480220531948</v>
+      </c>
+      <c r="K40">
+        <v>-0.2172705035685719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.5227398812587823</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>0.4406178386740742</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.1120920480802021</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.4127398812587824</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.1887398812587824</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.3152499217222862</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>-0.02551264069874778</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.2799154064837261</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>0.01851010070983469</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.0066972761558311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>1.413678501741462</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>1.08515271114759</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>1.38580054432617</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>1.16180054432617</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>1.288310584789674</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>0.9475480223686397</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>1.252976069551114</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>0.9915707637772222</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>0.9663633869115564</v>
+      </c>
+      <c r="K42">
+        <v>1.158621710143127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.1871668706385847</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>0.487814703817165</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>0.263814703817165</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>0.3903247442806688</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>0.04956218185963485</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>0.3549902290421088</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>0.09358492326821732</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>0.06837754640255153</v>
+      </c>
+      <c r="J43">
+        <v>0.2606358696341218</v>
+      </c>
+      <c r="K43">
+        <v>0.2118651681965886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.4237343126741154</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.1997343126741154</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>0.3262443531376191</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-0.01451820928341477</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.2909098378990592</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>0.02950453212516771</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>0.004297155259501917</v>
+      </c>
+      <c r="I44">
+        <v>0.1965554784910722</v>
+      </c>
+      <c r="J44">
+        <v>0.147784777053539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.3642057909153072</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.4907158313788109</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.149953268957777</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.4553813161402509</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>0.1939760103663595</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0.1687686335006937</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.3610269567322639</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>0.3122562552947308</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.304105594018323</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>-0.03665696840271088</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>0.268771078779763</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>0.007365773005871601</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.01784160385979419</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>0.1744167193717761</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>0.1256460179342429</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.2336291894851882</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.07179885769728576</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.1896064480766057</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.2148138249422715</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.02255550171070122</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.07132620314823437</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>0.1620802390468526</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.09932506672703881</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-0.1245324435927046</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>0.06772587963886564</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>0.0189551782013325</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.237319901377073</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.2625272782427387</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.07026895501116853</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.1190396564487017</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.2357126085203348</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.04345428528876452</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.09222498672629767</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.1086967540443382</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.1574674554818714</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.08180776662314601</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.3961397935279365</v>
+      </c>
+      <c r="C2">
         <v>-0.8658532110776773</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.085355595993732</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1.186601308435371</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.888257068760709</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.462956867670698</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.2195858099994154</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.06584579129422252</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.4815245213419388</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.5008400671930531</v>
-      </c>
-      <c r="K2">
-        <v>-1.637808376238996</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1.167098917606574</v>
+      </c>
+      <c r="C3">
         <v>1.268344630048213</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2.970000390373551</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4.54470018928354</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3013291316122576</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.01589753031861962</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.5632678429547809</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.5825833888058952</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-1.556065054626154</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.0439349453738459</v>
-      </c>
-      <c r="K3">
-        <v>0.3791706638676062</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>2.764629724415853</v>
+      </c>
+      <c r="C4">
         <v>4.339329523325842</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.09595846565456007</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.1894731356390779</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3578971769970835</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.3772127228481977</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-1.761435720583851</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.1614357205838516</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1737999979099087</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.9614357205838516</v>
-      </c>
-      <c r="K4">
-        <v>0.2385642794161484</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-0.7221069616411526</v>
+      </c>
+      <c r="C5">
         <v>-1.007538562934791</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.4601682502986292</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.4408527044475149</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-2.579501147879564</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.9795011478795643</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.644265429385804</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-1.779501147879564</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.5795011478795643</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.7795011478795644</v>
-      </c>
-      <c r="K5">
-        <v>-0.09763575208163641</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-0.4648927333446721</v>
+      </c>
+      <c r="C6">
         <v>-0.4455771874935578</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-2.584225630925607</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.9842256309256072</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.6489899124318469</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-1.784225630925607</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.5842256309256072</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.7842256309256073</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.1023602351276793</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.7842256309256073</v>
-      </c>
-      <c r="K6">
-        <v>-0.5842256309256072</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-2.660560542051234</v>
+      </c>
+      <c r="C7">
         <v>-1.060560542051235</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.7253248235574744</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1.860560542051235</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.6605605420512347</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.8605605420512348</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.1786951462533068</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.8605605420512348</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.6605605420512347</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.5605605420512347</v>
-      </c>
-      <c r="K7">
-        <v>0.3307583964246675</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.5317164889160944</v>
+      </c>
+      <c r="C8">
         <v>-1.666952207409855</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.4669522074098547</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.6669522074098547</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.01491318838807321</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.6669522074098547</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.4669522074098547</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.3669522074098547</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.5243667310660475</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.2302327443170123</v>
-      </c>
-      <c r="K8">
-        <v>-0.8669522074098547</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-0.1844737916354247</v>
+      </c>
+      <c r="C9">
         <v>-0.3844737916354247</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.2973916041625032</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.3844737916354247</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.1844737916354247</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.08447379163542471</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.8068451468404775</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.05224567145741768</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.5844737916354247</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.1844737916354247</v>
-      </c>
-      <c r="K9">
-        <v>-0.2682320743566989</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.9498309350117102</v>
+      </c>
+      <c r="C10">
         <v>0.2679655392137823</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.4679655392137823</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.5679655392137823</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.459284477689685</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.7046850023066247</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.06796553921378234</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.4679655392137823</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.3842072564925081</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.04995849877536163</v>
-      </c>
-      <c r="K10">
-        <v>0.8530597352843534</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.3967158511065961</v>
+      </c>
+      <c r="C11">
         <v>0.4967158511065961</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.388034789582498</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.6334353141994384</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.003284148893403893</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.3967158511065961</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.3129575683853218</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.1212081868825479</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.7818100471771672</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.6304765785344486</v>
-      </c>
-      <c r="K11">
-        <v>-0.002975002355618983</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>1.333489124374323</v>
+      </c>
+      <c r="C12">
         <v>0.5788896489912631</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.05782981410157928</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3421701858984207</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.2584119031771465</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.1757538520907233</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.7272643819689918</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.5759309133262732</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.05752066756379437</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.3698661300355454</v>
-      </c>
-      <c r="K12">
-        <v>0.2035272490591765</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.4115421804426261</v>
+      </c>
+      <c r="C13">
         <v>-0.01154218044262617</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.0953004631639004</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.5294662184317701</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.3735520156279449</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.2222185469852264</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.4112330339048412</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.0161537636944985</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.1501851172818704</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.02746674847313668</v>
-      </c>
-      <c r="K13">
-        <v>0.01976708777089581</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.1899920185464083</v>
+      </c>
+      <c r="C14">
         <v>-0.6241577738142781</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.278860460245437</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.1275269916027184</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.5059245892873492</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.07853779168800942</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.2448766726643783</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.1221583038556446</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.07492446761161212</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.4715483026173246</v>
-      </c>
-      <c r="K14">
-        <v>-0.2174877627078644</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.352007793283181</v>
+      </c>
+      <c r="C15">
         <v>0.2006743246404624</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.4327772562496052</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.005390458650265439</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.1717293396266343</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.04901097081790062</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.001777134573868133</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.3984009695795806</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.1443404296701204</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.07577883373562877</v>
-      </c>
-      <c r="K15">
-        <v>-0.1508151120785869</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.5318911477526598</v>
+      </c>
+      <c r="C16">
         <v>-0.10450435015332</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-0.2708432311296889</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.1481248623209552</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.1008910260769227</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.4975148610826352</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.243454321173175</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.02333505776742581</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.2499290035816415</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.4380947362002985</v>
-      </c>
-      <c r="K16">
-        <v>-0.4654027144206907</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>-0.1943118252765303</v>
+      </c>
+      <c r="C17">
         <v>-0.07159345646779661</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.02435962022376412</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.4209834552294766</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.1669229153200164</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.05319634808573279</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.1733975977284829</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-0.3615633303471398</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.388871308567532</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-0.579840620995968</v>
-      </c>
-      <c r="K17">
-        <v>-0.3626408008892256</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.1414412361135063</v>
+      </c>
+      <c r="C18">
         <v>-0.2551825988922062</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.001122058982745977</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.2189972044230032</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-0.007596741391212525</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.1957624740098695</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.2230704522302617</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.4140397646586976</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.1968399445519552</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.1128527134437846</v>
-      </c>
-      <c r="K18">
-        <v>-0.04145182147429838</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.01982722022162875</v>
+      </c>
+      <c r="C19">
         <v>0.2002920431841204</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.0263019026300953</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.2144676352487522</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.2417756134691444</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.4327449258975804</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.215545105790838</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.09414755220490184</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.06015698271318115</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.5914268066611015</v>
-      </c>
-      <c r="K19">
-        <v>0.3741060044138607</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.08291733595673073</v>
+      </c>
+      <c r="C20">
         <v>-0.2710830685753877</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.2983910467957799</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.4893603592242158</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.2721605391174734</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.03753211887826641</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.1167724160398166</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.5348113733344662</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.3174905710872252</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.06518862666553393</v>
-      </c>
-      <c r="K20">
-        <v>0.4094942935234002</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.205818325500546</v>
+      </c>
+      <c r="C21">
         <v>-0.3967876379289819</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.1795878178222395</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.1301048401735003</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.02419969474458267</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.6273840946297</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4100632923824591</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.02738409462969998</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.5020670148186341</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.3432229934097379</v>
-      </c>
-      <c r="K21">
-        <v>0.399392262794548</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-0.08362521629283748</v>
+      </c>
+      <c r="C22">
         <v>0.2260674417029023</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.07176290678481934</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.723346696159102</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.5060258939118611</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.123346696159102</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.5980296163480361</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.4391855949391399</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.49535486432395</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2.723346696159102</v>
-      </c>
-      <c r="K22">
-        <v>10.21430220778742</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>0.2266672710189071</v>
+      </c>
+      <c r="C23">
         <v>0.07236273610082411</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.7239465254751067</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.5066257232278659</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.1239465254751068</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.5986294456640409</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.4397854242551447</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.4959546936399548</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2.723946525475107</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>10.21490203710342</v>
-      </c>
-      <c r="K23">
-        <v>-6.116053474524894</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.07801700480720941</v>
+      </c>
+      <c r="C24">
         <v>0.7296007941814922</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.5122799919342512</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1296007941814921</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.6042837143704262</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.44543969296153</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.5016089623463401</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.729600794181492</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>10.22055630580981</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-6.110399205818508</v>
-      </c>
-      <c r="K24">
-        <v>0.9296007941814978</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.7456151637033286</v>
+      </c>
+      <c r="C25">
         <v>0.5282943614560878</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.1456151637033286</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.6202980838922627</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.4614540624833665</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.5176233318681767</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2.745615163703329</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>10.23657067533165</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-6.094384836296672</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.9456151637033343</v>
-      </c>
-      <c r="K25">
-        <v>1.255095163703328</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>0.4449657725412746</v>
+      </c>
+      <c r="C26">
         <v>0.06228657478851546</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.5369694949774495</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.3781254735685534</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.4342947429533635</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.662286574788516</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>10.15324208641683</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-6.177713425211485</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.8622865747885211</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1.171766574788515</v>
-      </c>
-      <c r="K26">
-        <v>-0.8477134252115006</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>0.009948405522321457</v>
+      </c>
+      <c r="C27">
         <v>0.4846313257112556</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.3257873043023594</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.3819565736871695</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.609948405522322</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>10.10090391715064</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-6.230051594477679</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.8099484055223272</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.119428405522321</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-0.9000515944776946</v>
-      </c>
-      <c r="K27">
-        <v>-1.110051594477689</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>0.5139923943602589</v>
+      </c>
+      <c r="C28">
         <v>0.3551483729513627</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.4113176423361729</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2.639309474171325</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>10.13026498579964</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-6.200690525828676</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.8393094741713305</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.148789474171324</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.8706905258286912</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1.080690525828685</v>
-      </c>
-      <c r="K28">
-        <v>0.9793094741713169</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>0.2964902223825334</v>
+      </c>
+      <c r="C29">
         <v>0.3526594917673435</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.580651323602495</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>10.07160683523081</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-6.259348676397505</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.7806513236025012</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.090131323602495</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-0.9293486763975205</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-1.139348676397514</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.9206513236024876</v>
-      </c>
-      <c r="K29">
-        <v>-0.084634224307848</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>0.2627480706371912</v>
+      </c>
+      <c r="C30">
         <v>2.490739902472344</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>9.98169541410066</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-6.349260097527657</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.6907399024723488</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.000219902472342</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-1.019260097527673</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1.229260097527667</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.8307399024723352</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-0.1745456454380003</v>
-      </c>
-      <c r="K30">
-        <v>-0.08926009752765679</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>2.442150043542813</v>
+      </c>
+      <c r="C31">
         <v>9.93310555517113</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-6.397849956457188</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.6421500435428186</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.9516300435428121</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-1.067849956457203</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-1.277849956457197</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.7821500435428049</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.2231355043675306</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.1378499564571871</v>
-      </c>
-      <c r="K31">
-        <v>0.2021500435428129</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>9.643810491242165</v>
+      </c>
+      <c r="C32">
         <v>-6.687145020386152</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.3528549796138537</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.6623349796138472</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-1.357145020386168</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-1.567145020386162</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.4928549796138401</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.5124305682964955</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.427145020386152</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-0.08714502038615196</v>
-      </c>
-      <c r="K32">
-        <v>0.242854979613848</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-7.048010376872033</v>
+      </c>
+      <c r="C33">
         <v>-0.008010376872026437</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.3014696231279671</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-1.718010376872048</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-1.928010376872042</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.1319896231279599</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.8732959247823756</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.7880103768720321</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.4480103768720321</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.1180103768720321</v>
-      </c>
-      <c r="K33">
-        <v>-0.2001324194567403</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0.09932372110441751</v>
+      </c>
+      <c r="C34">
         <v>0.408803721104411</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-1.610676278895604</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-1.820676278895598</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.2393237211044039</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-0.7659618268059316</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.6806762788955882</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.3406762788955882</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.0106762788955882</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.09279832148029638</v>
-      </c>
-      <c r="K34">
-        <v>-0.4213241120741685</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0.4241930629912332</v>
+      </c>
+      <c r="C35">
         <v>-1.595286937008782</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-1.805286937008776</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.254713062991226</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-0.7505724849191096</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-0.665286937008766</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.325286937008766</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.004713062991233974</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.0774089795934742</v>
-      </c>
-      <c r="J35">
-        <v>-0.4059347701873463</v>
-      </c>
-      <c r="K35">
-        <v>-0.105286937008766</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>-1.555456759433207</v>
+      </c>
+      <c r="C36">
         <v>-1.765456759433201</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.2945432405668015</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-0.7107423073435341</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-0.6254567594331906</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-0.2854567594331906</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.04454324056680939</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-0.03757880201789879</v>
-      </c>
-      <c r="I36">
-        <v>-0.3661045926117709</v>
-      </c>
-      <c r="J36">
-        <v>-0.0654567594331906</v>
-      </c>
-      <c r="K36">
-        <v>-0.2894567594331906</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>-1.650740896499498</v>
+      </c>
+      <c r="C37">
         <v>0.4092591035005043</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-0.5960264444098312</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-0.5107408964994877</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.1707408964994877</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.1592591035005123</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.07713706091580411</v>
-      </c>
-      <c r="H37">
-        <v>-0.251388729678068</v>
-      </c>
-      <c r="I37">
-        <v>0.0492591035005123</v>
-      </c>
-      <c r="J37">
-        <v>-0.1747408964994877</v>
-      </c>
-      <c r="K37">
-        <v>-0.04823085603598395</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0.4449418407373099</v>
+      </c>
+      <c r="C38">
         <v>-0.5603437071730256</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.4750581592626822</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.1350581592626822</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.1949418407373178</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.1128197981526096</v>
-      </c>
-      <c r="G38">
-        <v>-0.2157059924412625</v>
-      </c>
-      <c r="H38">
-        <v>0.08494184073731782</v>
-      </c>
-      <c r="I38">
-        <v>-0.1390581592626822</v>
-      </c>
-      <c r="J38">
-        <v>-0.01254811879917843</v>
-      </c>
-      <c r="K38">
-        <v>-0.3533106812202124</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>-0.493337925739077</v>
+      </c>
+      <c r="C39">
         <v>-0.4080523778287335</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-0.06805237782873351</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.2619476221712665</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.1798255795865583</v>
-      </c>
-      <c r="F39">
-        <v>-0.1487002110073138</v>
-      </c>
-      <c r="G39">
-        <v>0.1519476221712665</v>
-      </c>
-      <c r="H39">
-        <v>-0.0720523778287335</v>
-      </c>
-      <c r="I39">
-        <v>0.05445766263477023</v>
-      </c>
-      <c r="J39">
-        <v>-0.2863048997862637</v>
-      </c>
-      <c r="K39">
-        <v>0.01912314739621022</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>-0.3830407230196243</v>
+      </c>
+      <c r="C40">
         <v>-0.04304072301962425</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.2869592769803757</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.2048372343956676</v>
-      </c>
-      <c r="E40">
-        <v>-0.1236885561982045</v>
-      </c>
-      <c r="F40">
-        <v>0.1769592769803758</v>
-      </c>
-      <c r="G40">
-        <v>-0.04704072301962425</v>
-      </c>
-      <c r="H40">
-        <v>0.0794693174438795</v>
-      </c>
-      <c r="I40">
-        <v>-0.2612932449771544</v>
-      </c>
-      <c r="J40">
-        <v>0.04413480220531948</v>
-      </c>
-      <c r="K40">
-        <v>-0.2172705035685719</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0.1927398812587824</v>
+      </c>
+      <c r="C41">
         <v>0.5227398812587823</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.4406178386740742</v>
-      </c>
-      <c r="D41">
-        <v>0.1120920480802021</v>
-      </c>
-      <c r="E41">
-        <v>0.4127398812587824</v>
-      </c>
-      <c r="F41">
-        <v>0.1887398812587824</v>
-      </c>
-      <c r="G41">
-        <v>0.3152499217222862</v>
-      </c>
-      <c r="H41">
-        <v>-0.02551264069874778</v>
-      </c>
-      <c r="I41">
-        <v>0.2799154064837261</v>
-      </c>
-      <c r="J41">
-        <v>0.01851010070983469</v>
-      </c>
-      <c r="K41">
-        <v>-0.0066972761558311</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>1.49580054432617</v>
+      </c>
+      <c r="C42">
         <v>1.413678501741462</v>
-      </c>
-      <c r="C42">
-        <v>1.08515271114759</v>
-      </c>
-      <c r="D42">
-        <v>1.38580054432617</v>
-      </c>
-      <c r="E42">
-        <v>1.16180054432617</v>
-      </c>
-      <c r="F42">
-        <v>1.288310584789674</v>
-      </c>
-      <c r="G42">
-        <v>0.9475480223686397</v>
-      </c>
-      <c r="H42">
-        <v>1.252976069551114</v>
-      </c>
-      <c r="I42">
-        <v>0.9915707637772222</v>
-      </c>
-      <c r="J42">
-        <v>0.9663633869115564</v>
-      </c>
-      <c r="K42">
-        <v>1.158621710143127</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.1871668706385847</v>
-      </c>
-      <c r="C43">
-        <v>0.487814703817165</v>
-      </c>
-      <c r="D43">
-        <v>0.263814703817165</v>
-      </c>
-      <c r="E43">
-        <v>0.3903247442806688</v>
-      </c>
-      <c r="F43">
-        <v>0.04956218185963485</v>
-      </c>
-      <c r="G43">
-        <v>0.3549902290421088</v>
-      </c>
-      <c r="H43">
-        <v>0.09358492326821732</v>
-      </c>
-      <c r="I43">
-        <v>0.06837754640255153</v>
-      </c>
-      <c r="J43">
-        <v>0.2606358696341218</v>
-      </c>
-      <c r="K43">
-        <v>0.2118651681965886</v>
+        <v>0.5156926612324568</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.4237343126741154</v>
-      </c>
-      <c r="C44">
-        <v>0.1997343126741154</v>
-      </c>
-      <c r="D44">
-        <v>0.3262443531376191</v>
-      </c>
-      <c r="E44">
-        <v>-0.01451820928341477</v>
-      </c>
-      <c r="F44">
-        <v>0.2909098378990592</v>
-      </c>
-      <c r="G44">
-        <v>0.02950453212516771</v>
-      </c>
-      <c r="H44">
-        <v>0.004297155259501917</v>
-      </c>
-      <c r="I44">
-        <v>0.1965554784910722</v>
-      </c>
-      <c r="J44">
-        <v>0.147784777053539</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.3642057909153072</v>
-      </c>
-      <c r="C45">
-        <v>0.4907158313788109</v>
-      </c>
-      <c r="D45">
-        <v>0.149953268957777</v>
-      </c>
-      <c r="E45">
-        <v>0.4553813161402509</v>
-      </c>
-      <c r="F45">
-        <v>0.1939760103663595</v>
-      </c>
-      <c r="G45">
-        <v>0.1687686335006937</v>
-      </c>
-      <c r="H45">
-        <v>0.3610269567322639</v>
-      </c>
-      <c r="I45">
-        <v>0.3122562552947308</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.304105594018323</v>
-      </c>
-      <c r="C46">
-        <v>-0.03665696840271088</v>
-      </c>
-      <c r="D46">
-        <v>0.268771078779763</v>
-      </c>
-      <c r="E46">
-        <v>0.007365773005871601</v>
-      </c>
-      <c r="F46">
-        <v>-0.01784160385979419</v>
-      </c>
-      <c r="G46">
-        <v>0.1744167193717761</v>
-      </c>
-      <c r="H46">
-        <v>0.1256460179342429</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.2336291894851882</v>
-      </c>
-      <c r="C47">
-        <v>0.07179885769728576</v>
-      </c>
-      <c r="D47">
-        <v>-0.1896064480766057</v>
-      </c>
-      <c r="E47">
-        <v>-0.2148138249422715</v>
-      </c>
-      <c r="F47">
-        <v>-0.02255550171070122</v>
-      </c>
-      <c r="G47">
-        <v>-0.07132620314823437</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>0.1620802390468526</v>
-      </c>
-      <c r="C48">
-        <v>-0.09932506672703881</v>
-      </c>
-      <c r="D48">
-        <v>-0.1245324435927046</v>
-      </c>
-      <c r="E48">
-        <v>0.06772587963886564</v>
-      </c>
-      <c r="F48">
-        <v>0.0189551782013325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.237319901377073</v>
-      </c>
-      <c r="C49">
-        <v>-0.2625272782427387</v>
-      </c>
-      <c r="D49">
-        <v>-0.07026895501116853</v>
-      </c>
-      <c r="E49">
-        <v>-0.1190396564487017</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.2357126085203348</v>
-      </c>
-      <c r="C50">
-        <v>-0.04345428528876452</v>
-      </c>
-      <c r="D50">
-        <v>-0.09222498672629767</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.1086967540443382</v>
-      </c>
-      <c r="C51">
-        <v>-0.1574674554818714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.08180776662314601</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>10.22055630580981</v>
       </c>
       <c r="K24">
-        <v>-6.110399205818508</v>
+        <v>-7.950704680006522</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>10.23657067533165</v>
       </c>
       <c r="J25">
-        <v>-6.094384836296672</v>
+        <v>-7.934690310484686</v>
       </c>
       <c r="K25">
-        <v>0.9456151637033343</v>
+        <v>0.2049867170129686</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>10.15324208641683</v>
       </c>
       <c r="I26">
-        <v>-6.177713425211485</v>
+        <v>-8.018018899399499</v>
       </c>
       <c r="J26">
-        <v>0.8622865747885211</v>
+        <v>0.1216581280981555</v>
       </c>
       <c r="K26">
-        <v>1.171766574788515</v>
+        <v>2.269229131468145</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>10.10090391715064</v>
       </c>
       <c r="H27">
-        <v>-6.230051594477679</v>
+        <v>-8.070357068665693</v>
       </c>
       <c r="I27">
-        <v>0.8099484055223272</v>
+        <v>0.06931995883196146</v>
       </c>
       <c r="J27">
-        <v>1.119428405522321</v>
+        <v>2.216890962201951</v>
       </c>
       <c r="K27">
-        <v>-0.9000515944776946</v>
+        <v>-1.223143443997281</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>10.13026498579964</v>
       </c>
       <c r="G28">
-        <v>-6.200690525828676</v>
+        <v>-8.04099600001669</v>
       </c>
       <c r="H28">
-        <v>0.8393094741713305</v>
+        <v>0.0986810274809648</v>
       </c>
       <c r="I28">
-        <v>1.148789474171324</v>
+        <v>2.246252030850955</v>
       </c>
       <c r="J28">
-        <v>-0.8706905258286912</v>
+        <v>-1.193782375348277</v>
       </c>
       <c r="K28">
-        <v>-1.080690525828685</v>
+        <v>-1.254965937862678</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>10.07160683523081</v>
       </c>
       <c r="F29">
-        <v>-6.259348676397505</v>
+        <v>-8.099654150585518</v>
       </c>
       <c r="G29">
-        <v>0.7806513236025012</v>
+        <v>0.04002287691213546</v>
       </c>
       <c r="H29">
-        <v>1.090131323602495</v>
+        <v>2.187593880282126</v>
       </c>
       <c r="I29">
-        <v>-0.9293486763975205</v>
+        <v>-1.252440525917107</v>
       </c>
       <c r="J29">
-        <v>-1.139348676397514</v>
+        <v>-1.313624088431507</v>
       </c>
       <c r="K29">
-        <v>0.9206513236024876</v>
+        <v>0.7278401608117974</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>9.98169541410066</v>
       </c>
       <c r="E30">
-        <v>-6.349260097527657</v>
+        <v>-8.189565571715672</v>
       </c>
       <c r="F30">
-        <v>0.6907399024723488</v>
+        <v>-0.04988854421801681</v>
       </c>
       <c r="G30">
-        <v>1.000219902472342</v>
+        <v>2.097682459151973</v>
       </c>
       <c r="H30">
-        <v>-1.019260097527673</v>
+        <v>-1.342351947047259</v>
       </c>
       <c r="I30">
-        <v>-1.229260097527667</v>
+        <v>-1.40353550956166</v>
       </c>
       <c r="J30">
-        <v>0.8307399024723352</v>
+        <v>0.6379287396816451</v>
       </c>
       <c r="K30">
-        <v>-0.1745456454380003</v>
+        <v>0.05533780647090653</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>9.93310555517113</v>
       </c>
       <c r="D31">
-        <v>-6.397849956457188</v>
+        <v>-8.238155430645202</v>
       </c>
       <c r="E31">
-        <v>0.6421500435428186</v>
+        <v>-0.09847840314754713</v>
       </c>
       <c r="F31">
-        <v>0.9516300435428121</v>
+        <v>2.049092600222443</v>
       </c>
       <c r="G31">
-        <v>-1.067849956457203</v>
+        <v>-1.390941805976789</v>
       </c>
       <c r="H31">
-        <v>-1.277849956457197</v>
+        <v>-1.45212536849119</v>
       </c>
       <c r="I31">
-        <v>0.7821500435428049</v>
+        <v>0.5893388807521147</v>
       </c>
       <c r="J31">
-        <v>-0.2231355043675306</v>
+        <v>0.006747947541376198</v>
       </c>
       <c r="K31">
-        <v>-0.1378499564571871</v>
+        <v>0.1024251963979083</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>9.643810491242165</v>
       </c>
       <c r="C32">
-        <v>-6.687145020386152</v>
+        <v>-8.527450494574166</v>
       </c>
       <c r="D32">
-        <v>0.3528549796138537</v>
+        <v>-0.387773467076512</v>
       </c>
       <c r="E32">
-        <v>0.6623349796138472</v>
+        <v>1.759797536293478</v>
       </c>
       <c r="F32">
-        <v>-1.357145020386168</v>
+        <v>-1.680236869905754</v>
       </c>
       <c r="G32">
-        <v>-1.567145020386162</v>
+        <v>-1.741420432420155</v>
       </c>
       <c r="H32">
-        <v>0.4928549796138401</v>
+        <v>0.3000438168231499</v>
       </c>
       <c r="I32">
-        <v>-0.5124305682964955</v>
+        <v>-0.2825471163875887</v>
       </c>
       <c r="J32">
-        <v>-0.427145020386152</v>
+        <v>-0.1868698675310566</v>
       </c>
       <c r="K32">
-        <v>-0.08714502038615196</v>
+        <v>-0.4472918755920416</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-7.048010376872033</v>
+        <v>-9.539112594293229</v>
       </c>
       <c r="C33">
-        <v>-0.008010376872026437</v>
+        <v>-1.399435566795574</v>
       </c>
       <c r="D33">
-        <v>0.3014696231279671</v>
+        <v>0.7481354365744159</v>
       </c>
       <c r="E33">
-        <v>-1.718010376872048</v>
+        <v>-2.691898969624816</v>
       </c>
       <c r="F33">
-        <v>-1.928010376872042</v>
+        <v>-2.753082532139217</v>
       </c>
       <c r="G33">
-        <v>0.1319896231279599</v>
+        <v>-0.7116182828959121</v>
       </c>
       <c r="H33">
-        <v>-0.8732959247823756</v>
+        <v>-1.294209216106651</v>
       </c>
       <c r="I33">
-        <v>-0.7880103768720321</v>
+        <v>-1.198531967250119</v>
       </c>
       <c r="J33">
-        <v>-0.4480103768720321</v>
+        <v>-1.458953975311104</v>
       </c>
       <c r="K33">
-        <v>-0.1180103768720321</v>
+        <v>-0.6234959894775609</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.09932372110441751</v>
+        <v>-0.5626908242059827</v>
       </c>
       <c r="C34">
-        <v>0.408803721104411</v>
+        <v>1.584880179164007</v>
       </c>
       <c r="D34">
-        <v>-1.610676278895604</v>
+        <v>-1.855154227035225</v>
       </c>
       <c r="E34">
-        <v>-1.820676278895598</v>
+        <v>-1.916337789549626</v>
       </c>
       <c r="F34">
-        <v>0.2393237211044039</v>
+        <v>0.1251264596936792</v>
       </c>
       <c r="G34">
-        <v>-0.7659618268059316</v>
+        <v>-0.4574644735170594</v>
       </c>
       <c r="H34">
-        <v>-0.6806762788955882</v>
+        <v>-0.3617872246605273</v>
       </c>
       <c r="I34">
-        <v>-0.3406762788955882</v>
+        <v>-0.6222092327215123</v>
       </c>
       <c r="J34">
-        <v>-0.0106762788955882</v>
+        <v>0.2132487531120304</v>
       </c>
       <c r="K34">
-        <v>-0.09279832148029638</v>
+        <v>0.1132259840148222</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.4241930629912332</v>
+        <v>1.582283197889339</v>
       </c>
       <c r="C35">
-        <v>-1.595286937008782</v>
+        <v>-1.857751208309893</v>
       </c>
       <c r="D35">
-        <v>-1.805286937008776</v>
+        <v>-1.918934770824294</v>
       </c>
       <c r="E35">
-        <v>0.254713062991226</v>
+        <v>0.1225294784190111</v>
       </c>
       <c r="F35">
-        <v>-0.7505724849191096</v>
+        <v>-0.4600614547917275</v>
       </c>
       <c r="G35">
-        <v>-0.665286937008766</v>
+        <v>-0.3643842059351954</v>
       </c>
       <c r="H35">
-        <v>-0.325286937008766</v>
+        <v>-0.6248062139961804</v>
       </c>
       <c r="I35">
-        <v>0.004713062991233974</v>
+        <v>0.2106517718373623</v>
       </c>
       <c r="J35">
-        <v>-0.0774089795934742</v>
+        <v>0.1106290027401541</v>
+      </c>
+      <c r="K35">
+        <v>-0.2432290572937746</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1.555456759433207</v>
+        <v>-1.988887556949398</v>
       </c>
       <c r="C36">
-        <v>-1.765456759433201</v>
+        <v>-2.050071119463799</v>
       </c>
       <c r="D36">
-        <v>0.2945432405668015</v>
+        <v>-0.008606870220494112</v>
       </c>
       <c r="E36">
-        <v>-0.7107423073435341</v>
+        <v>-0.5911978034312326</v>
       </c>
       <c r="F36">
-        <v>-0.6254567594331906</v>
+        <v>-0.4955205545747006</v>
       </c>
       <c r="G36">
-        <v>-0.2854567594331906</v>
+        <v>-0.7559425626356856</v>
       </c>
       <c r="H36">
-        <v>0.04454324056680939</v>
+        <v>0.07951542319785709</v>
       </c>
       <c r="I36">
-        <v>-0.03757880201789879</v>
+        <v>-0.0205073458993511</v>
+      </c>
+      <c r="J36">
+        <v>-0.3743654059332798</v>
+      </c>
+      <c r="K36">
+        <v>-0.2261723364979147</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1.650740896499498</v>
+        <v>-1.927016308533492</v>
       </c>
       <c r="C37">
-        <v>0.4092591035005043</v>
+        <v>0.1144479407098132</v>
       </c>
       <c r="D37">
-        <v>-0.5960264444098312</v>
+        <v>-0.4681429925009254</v>
       </c>
       <c r="E37">
-        <v>-0.5107408964994877</v>
+        <v>-0.3724657436443933</v>
       </c>
       <c r="F37">
-        <v>-0.1707408964994877</v>
+        <v>-0.6328877517053784</v>
       </c>
       <c r="G37">
-        <v>0.1592591035005123</v>
+        <v>0.2025702341281644</v>
       </c>
       <c r="H37">
-        <v>0.07713706091580411</v>
+        <v>0.1025474650309562</v>
+      </c>
+      <c r="I37">
+        <v>-0.2513105950029725</v>
+      </c>
+      <c r="J37">
+        <v>-0.1031175255676074</v>
+      </c>
+      <c r="K37">
+        <v>0.05431613594065687</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.4449418407373099</v>
+        <v>0.286130677946619</v>
       </c>
       <c r="C38">
-        <v>-0.5603437071730256</v>
+        <v>-0.2964602552641196</v>
       </c>
       <c r="D38">
-        <v>-0.4750581592626822</v>
+        <v>-0.2007830064075875</v>
       </c>
       <c r="E38">
-        <v>-0.1350581592626822</v>
+        <v>-0.4612050144685725</v>
       </c>
       <c r="F38">
-        <v>0.1949418407373178</v>
+        <v>0.3742529713649702</v>
       </c>
       <c r="G38">
-        <v>0.1128197981526096</v>
+        <v>0.274230202267762</v>
+      </c>
+      <c r="H38">
+        <v>-0.07962785776616668</v>
+      </c>
+      <c r="I38">
+        <v>0.06856521166919841</v>
+      </c>
+      <c r="J38">
+        <v>0.2259988731774627</v>
+      </c>
+      <c r="K38">
+        <v>-0.2746572130988596</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.493337925739077</v>
+        <v>-0.2799830286212046</v>
       </c>
       <c r="C39">
-        <v>-0.4080523778287335</v>
+        <v>-0.1843057797646726</v>
       </c>
       <c r="D39">
-        <v>-0.06805237782873351</v>
+        <v>-0.4447277878256575</v>
       </c>
       <c r="E39">
-        <v>0.2619476221712665</v>
+        <v>0.3907301980078852</v>
       </c>
       <c r="F39">
-        <v>0.1798255795865583</v>
+        <v>0.290707428910677</v>
+      </c>
+      <c r="G39">
+        <v>-0.06315063112325173</v>
+      </c>
+      <c r="H39">
+        <v>0.08504243831211336</v>
+      </c>
+      <c r="I39">
+        <v>0.2424760998203776</v>
+      </c>
+      <c r="J39">
+        <v>-0.2581799864559446</v>
+      </c>
+      <c r="K39">
+        <v>0.02217630081466202</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.3830407230196243</v>
+        <v>-0.1907655701645288</v>
       </c>
       <c r="C40">
-        <v>-0.04304072301962425</v>
+        <v>-0.4511875782255138</v>
       </c>
       <c r="D40">
-        <v>0.2869592769803757</v>
+        <v>0.3842704076080289</v>
       </c>
       <c r="E40">
-        <v>0.2048372343956676</v>
+        <v>0.2842476385108207</v>
+      </c>
+      <c r="F40">
+        <v>-0.06961042152310797</v>
+      </c>
+      <c r="G40">
+        <v>0.07858264791225712</v>
+      </c>
+      <c r="H40">
+        <v>0.2360163094205214</v>
+      </c>
+      <c r="I40">
+        <v>-0.2646397768558009</v>
+      </c>
+      <c r="J40">
+        <v>0.01571651041480578</v>
+      </c>
+      <c r="K40">
+        <v>-0.1562496011445794</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.1927398812587824</v>
+        <v>-0.3709431027150346</v>
       </c>
       <c r="C41">
-        <v>0.5227398812587823</v>
+        <v>0.4645148831185081</v>
       </c>
       <c r="D41">
-        <v>0.4406178386740742</v>
+        <v>0.3644921140212999</v>
+      </c>
+      <c r="E41">
+        <v>0.01063405398737125</v>
+      </c>
+      <c r="F41">
+        <v>0.1588271234227363</v>
+      </c>
+      <c r="G41">
+        <v>0.3162607849310006</v>
+      </c>
+      <c r="H41">
+        <v>-0.1843953013453217</v>
+      </c>
+      <c r="I41">
+        <v>0.09596098592528499</v>
+      </c>
+      <c r="J41">
+        <v>-0.07600512563410017</v>
+      </c>
+      <c r="K41">
+        <v>0.2297419926957899</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>1.49580054432617</v>
+        <v>0.7003399477485883</v>
       </c>
       <c r="C42">
-        <v>1.413678501741462</v>
+        <v>0.6003171786513801</v>
+      </c>
+      <c r="D42">
+        <v>0.2464591186174515</v>
+      </c>
+      <c r="E42">
+        <v>0.3946521880528166</v>
+      </c>
+      <c r="F42">
+        <v>0.5520858495610809</v>
+      </c>
+      <c r="G42">
+        <v>0.0514297632847586</v>
+      </c>
+      <c r="H42">
+        <v>0.3317860505553653</v>
+      </c>
+      <c r="I42">
+        <v>0.1598199389959801</v>
+      </c>
+      <c r="J42">
+        <v>0.4655670573258702</v>
+      </c>
+      <c r="K42">
+        <v>-0.1466231083065851</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.5156926612324568</v>
+        <v>1.534006967818713</v>
+      </c>
+      <c r="C43">
+        <v>1.180148907784784</v>
+      </c>
+      <c r="D43">
+        <v>1.328341977220149</v>
+      </c>
+      <c r="E43">
+        <v>1.485775638728414</v>
+      </c>
+      <c r="F43">
+        <v>0.9851195524520913</v>
+      </c>
+      <c r="G43">
+        <v>1.265475839722698</v>
+      </c>
+      <c r="H43">
+        <v>1.093509728163313</v>
+      </c>
+      <c r="I43">
+        <v>1.399256846493203</v>
+      </c>
+      <c r="J43">
+        <v>0.7870666808607476</v>
+      </c>
+      <c r="K43">
+        <v>1.475402913200228</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>0.2665290763311319</v>
+      </c>
+      <c r="C44">
+        <v>0.414722145766497</v>
+      </c>
+      <c r="D44">
+        <v>0.5721558072747612</v>
+      </c>
+      <c r="E44">
+        <v>0.07149972099843901</v>
+      </c>
+      <c r="F44">
+        <v>0.3518560082690457</v>
+      </c>
+      <c r="G44">
+        <v>0.1798898967096605</v>
+      </c>
+      <c r="H44">
+        <v>0.4856370150395506</v>
+      </c>
+      <c r="I44">
+        <v>-0.1265531505929047</v>
+      </c>
+      <c r="J44">
+        <v>0.5617830817465759</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.3874065102046941</v>
+      </c>
+      <c r="C45">
+        <v>0.5448401717129584</v>
+      </c>
+      <c r="D45">
+        <v>0.04418408543663613</v>
+      </c>
+      <c r="E45">
+        <v>0.3245403727072428</v>
+      </c>
+      <c r="F45">
+        <v>0.1525742611478576</v>
+      </c>
+      <c r="G45">
+        <v>0.4583213794777478</v>
+      </c>
+      <c r="H45">
+        <v>-0.1538687861547076</v>
+      </c>
+      <c r="I45">
+        <v>0.534467446184773</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.7216226592872005</v>
+      </c>
+      <c r="C46">
+        <v>0.2209665730108782</v>
+      </c>
+      <c r="D46">
+        <v>0.5013228602814849</v>
+      </c>
+      <c r="E46">
+        <v>0.3293567487220997</v>
+      </c>
+      <c r="F46">
+        <v>0.6351038670519898</v>
+      </c>
+      <c r="G46">
+        <v>0.02291370141953453</v>
+      </c>
+      <c r="H46">
+        <v>0.7112499337590151</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.0137716841008341</v>
+      </c>
+      <c r="C47">
+        <v>0.2665846031697726</v>
+      </c>
+      <c r="D47">
+        <v>0.09461849161038739</v>
+      </c>
+      <c r="E47">
+        <v>0.4003656099402775</v>
+      </c>
+      <c r="F47">
+        <v>-0.2118245556921778</v>
+      </c>
+      <c r="G47">
+        <v>0.4765116766473028</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.1211178113396557</v>
+      </c>
+      <c r="C48">
+        <v>-0.0508483002197295</v>
+      </c>
+      <c r="D48">
+        <v>0.2548988181101606</v>
+      </c>
+      <c r="E48">
+        <v>-0.3572913475222947</v>
+      </c>
+      <c r="F48">
+        <v>0.3310448848171859</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.02122337563261142</v>
+      </c>
+      <c r="C49">
+        <v>0.2845237426972787</v>
+      </c>
+      <c r="D49">
+        <v>-0.3276664229351766</v>
+      </c>
+      <c r="E49">
+        <v>0.360669809404304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.1707505866712637</v>
+      </c>
+      <c r="C50">
+        <v>-0.4414395789611916</v>
+      </c>
+      <c r="D50">
+        <v>0.246896653378289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-0.4496452844522253</v>
+      </c>
+      <c r="C51">
+        <v>0.2386909478872553</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>0.232387863851956</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/GDP/Data/naive_err/AVERAGE_10_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>2.888257068760709</v>
       </c>
-      <c r="G2">
-        <v>4.462956867670698</v>
-      </c>
-      <c r="H2">
-        <v>0.2195858099994154</v>
-      </c>
-      <c r="I2">
-        <v>-0.06584579129422252</v>
-      </c>
-      <c r="J2">
-        <v>0.4815245213419388</v>
-      </c>
-      <c r="K2">
-        <v>0.5008400671930531</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>0.5632678429547809</v>
       </c>
-      <c r="I3">
-        <v>0.5825833888058952</v>
-      </c>
-      <c r="J3">
-        <v>-1.556065054626154</v>
-      </c>
-      <c r="K3">
-        <v>0.0439349453738459</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>0.3578971769970835</v>
       </c>
-      <c r="G4">
-        <v>0.3772127228481977</v>
-      </c>
-      <c r="H4">
-        <v>-1.761435720583851</v>
-      </c>
-      <c r="I4">
-        <v>-0.1614357205838516</v>
-      </c>
-      <c r="J4">
-        <v>0.1737999979099087</v>
-      </c>
-      <c r="K4">
-        <v>-0.9614357205838516</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-0.644265429385804</v>
       </c>
-      <c r="I5">
-        <v>-1.779501147879564</v>
-      </c>
-      <c r="J5">
-        <v>-0.5795011478795643</v>
-      </c>
-      <c r="K5">
-        <v>-0.7795011478795644</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>-0.6489899124318469</v>
       </c>
-      <c r="G6">
-        <v>-1.784225630925607</v>
-      </c>
-      <c r="H6">
-        <v>-0.5842256309256072</v>
-      </c>
-      <c r="I6">
-        <v>-0.7842256309256073</v>
-      </c>
-      <c r="J6">
-        <v>-0.1023602351276793</v>
-      </c>
-      <c r="K6">
-        <v>-0.7842256309256073</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>-0.1786951462533068</v>
       </c>
-      <c r="I7">
-        <v>-0.8605605420512348</v>
-      </c>
-      <c r="J7">
-        <v>-0.6605605420512347</v>
-      </c>
-      <c r="K7">
-        <v>-0.5605605420512347</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>0.01491318838807321</v>
       </c>
-      <c r="G8">
-        <v>-0.6669522074098547</v>
-      </c>
-      <c r="H8">
-        <v>-0.4669522074098547</v>
-      </c>
-      <c r="I8">
-        <v>-0.3669522074098547</v>
-      </c>
-      <c r="J8">
-        <v>0.5243667310660475</v>
-      </c>
-      <c r="K8">
-        <v>-0.2302327443170123</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>0.8068451468404775</v>
       </c>
-      <c r="I9">
-        <v>0.05224567145741768</v>
-      </c>
-      <c r="J9">
-        <v>-0.5844737916354247</v>
-      </c>
-      <c r="K9">
-        <v>-0.1844737916354247</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>1.459284477689685</v>
       </c>
-      <c r="G10">
-        <v>0.7046850023066247</v>
-      </c>
-      <c r="H10">
-        <v>0.06796553921378234</v>
-      </c>
-      <c r="I10">
-        <v>0.4679655392137823</v>
-      </c>
-      <c r="J10">
-        <v>0.3842072564925081</v>
-      </c>
-      <c r="K10">
-        <v>-0.04995849877536163</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.3129575683853218</v>
       </c>
-      <c r="I11">
-        <v>-0.1212081868825479</v>
-      </c>
-      <c r="J11">
-        <v>0.7818100471771672</v>
-      </c>
-      <c r="K11">
-        <v>0.6304765785344486</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.2584119031771465</v>
       </c>
-      <c r="G12">
-        <v>-0.1757538520907233</v>
-      </c>
-      <c r="H12">
-        <v>0.7272643819689918</v>
-      </c>
-      <c r="I12">
-        <v>0.5759309133262732</v>
-      </c>
-      <c r="J12">
-        <v>-0.05752066756379437</v>
-      </c>
-      <c r="K12">
-        <v>0.3698661300355454</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-0.4112330339048412</v>
       </c>
-      <c r="I13">
-        <v>0.0161537636944985</v>
-      </c>
-      <c r="J13">
-        <v>-0.1501851172818704</v>
-      </c>
-      <c r="K13">
-        <v>-0.02746674847313668</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.5059245892873492</v>
       </c>
-      <c r="G14">
-        <v>-0.07853779168800942</v>
-      </c>
-      <c r="H14">
-        <v>-0.2448766726643783</v>
-      </c>
-      <c r="I14">
-        <v>-0.1221583038556446</v>
-      </c>
-      <c r="J14">
-        <v>-0.07492446761161212</v>
-      </c>
-      <c r="K14">
-        <v>-0.4715483026173246</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>-0.001777134573868133</v>
       </c>
-      <c r="I15">
-        <v>-0.3984009695795806</v>
-      </c>
-      <c r="J15">
-        <v>-0.1443404296701204</v>
-      </c>
-      <c r="K15">
-        <v>0.07577883373562877</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-0.1008910260769227</v>
       </c>
-      <c r="G16">
-        <v>-0.4975148610826352</v>
-      </c>
-      <c r="H16">
-        <v>-0.243454321173175</v>
-      </c>
-      <c r="I16">
-        <v>-0.02333505776742581</v>
-      </c>
-      <c r="J16">
-        <v>-0.2499290035816415</v>
-      </c>
-      <c r="K16">
-        <v>-0.4380947362002985</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-0.1733975977284829</v>
       </c>
-      <c r="I17">
-        <v>-0.3615633303471398</v>
-      </c>
-      <c r="J17">
-        <v>-0.388871308567532</v>
-      </c>
-      <c r="K17">
-        <v>-0.579840620995968</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-0.1968399445519552</v>
       </c>
-      <c r="K18">
-        <v>0.1128527134437846</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>-0.215545105790838</v>
       </c>
-      <c r="I19">
-        <v>0.09414755220490184</v>
-      </c>
-      <c r="J19">
-        <v>-0.06015698271318115</v>
-      </c>
-      <c r="K19">
-        <v>0.5914268066611015</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.3174905710872252</v>
       </c>
-      <c r="K20">
-        <v>-0.06518862666553393</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.4100632923824591</v>
       </c>
-      <c r="I21">
-        <v>0.02738409462969998</v>
-      </c>
-      <c r="J21">
-        <v>0.5020670148186341</v>
-      </c>
-      <c r="K21">
-        <v>0.3432229934097379</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>0.49535486432395</v>
       </c>
-      <c r="K22">
-        <v>2.723346696159102</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>0.4959546936399548</v>
       </c>
-      <c r="J23">
-        <v>2.723946525475107</v>
-      </c>
-      <c r="K23">
-        <v>10.21490203710342</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>0.5016089623463401</v>
       </c>
-      <c r="I24">
-        <v>2.729600794181492</v>
-      </c>
-      <c r="J24">
-        <v>10.22055630580981</v>
-      </c>
-      <c r="K24">
-        <v>-7.950704680006522</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>0.1216581280981555</v>
       </c>
-      <c r="K26">
-        <v>2.269229131468145</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>0.06931995883196146</v>
       </c>
-      <c r="J27">
-        <v>2.216890962201951</v>
-      </c>
-      <c r="K27">
-        <v>-1.223143443997281</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>0.0986810274809648</v>
       </c>
-      <c r="I28">
-        <v>2.246252030850955</v>
-      </c>
-      <c r="J28">
-        <v>-1.193782375348277</v>
-      </c>
-      <c r="K28">
-        <v>-1.254965937862678</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>0.6379287396816451</v>
       </c>
-      <c r="K30">
-        <v>0.05533780647090653</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>0.5893388807521147</v>
       </c>
-      <c r="J31">
-        <v>0.006747947541376198</v>
-      </c>
-      <c r="K31">
-        <v>0.1024251963979083</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>0.3000438168231499</v>
       </c>
-      <c r="I32">
-        <v>-0.2825471163875887</v>
-      </c>
-      <c r="J32">
-        <v>-0.1868698675310566</v>
-      </c>
-      <c r="K32">
-        <v>-0.4472918755920416</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>0.2132487531120304</v>
       </c>
-      <c r="K34">
-        <v>0.1132259840148222</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>0.2106517718373623</v>
       </c>
-      <c r="J35">
-        <v>0.1106290027401541</v>
-      </c>
-      <c r="K35">
-        <v>-0.2432290572937746</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>0.07951542319785709</v>
       </c>
-      <c r="I36">
-        <v>-0.0205073458993511</v>
-      </c>
-      <c r="J36">
-        <v>-0.3743654059332798</v>
-      </c>
-      <c r="K36">
-        <v>-0.2261723364979147</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>0.2259988731774627</v>
       </c>
-      <c r="K38">
-        <v>-0.2746572130988596</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>0.2424760998203776</v>
       </c>
-      <c r="J39">
-        <v>-0.2581799864559446</v>
-      </c>
-      <c r="K39">
-        <v>0.02217630081466202</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>0.2360163094205214</v>
       </c>
-      <c r="I40">
-        <v>-0.2646397768558009</v>
-      </c>
-      <c r="J40">
-        <v>0.01571651041480578</v>
-      </c>
-      <c r="K40">
-        <v>-0.1562496011445794</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>0.4655670573258702</v>
       </c>
-      <c r="K42">
-        <v>-0.1466231083065851</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>1.399256846493203</v>
       </c>
-      <c r="J43">
-        <v>0.7870666808607476</v>
-      </c>
-      <c r="K43">
-        <v>1.475402913200228</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>0.4856370150395506</v>
-      </c>
-      <c r="I44">
-        <v>-0.1265531505929047</v>
-      </c>
-      <c r="J44">
-        <v>0.5617830817465759</v>
       </c>
     </row>
     <row r="45" spans="1:11">
